--- a/2022C/高钾亚类划分结果.xlsx
+++ b/2022C/高钾亚类划分结果.xlsx
@@ -651,7 +651,7 @@
         <v>47</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -846,7 +846,7 @@
         <v>47</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -911,7 +911,7 @@
         <v>47</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1366,7 +1366,7 @@
         <v>47</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1431,7 +1431,7 @@
         <v>47</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1496,7 +1496,7 @@
         <v>47</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1561,7 +1561,7 @@
         <v>47</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21">

--- a/2022C/高钾亚类划分结果.xlsx
+++ b/2022C/高钾亚类划分结果.xlsx
@@ -651,7 +651,7 @@
         <v>47</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,7 +716,7 @@
         <v>47</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -781,7 +781,7 @@
         <v>47</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -846,7 +846,7 @@
         <v>47</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -911,7 +911,7 @@
         <v>47</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -976,7 +976,7 @@
         <v>47</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1041,7 +1041,7 @@
         <v>47</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1106,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1171,7 +1171,7 @@
         <v>48</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1301,7 +1301,7 @@
         <v>48</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1366,7 +1366,7 @@
         <v>47</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1431,7 +1431,7 @@
         <v>47</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1496,7 +1496,7 @@
         <v>47</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1626,7 +1626,7 @@
         <v>47</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1691,7 +1691,7 @@
         <v>48</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1756,7 +1756,7 @@
         <v>48</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
